--- a/medicine/Bioéthique/Sciences_de_la_vie/Sciences_de_la_vie.xlsx
+++ b/medicine/Bioéthique/Sciences_de_la_vie/Sciences_de_la_vie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sciences de la vie, ou les biosciences, ou, dans un sens élargi, la biologie (du grec bios « la vie » et logos, « discours »), comprennent les domaines de la science qui impliquent l'étude des organismes vivants - tels que les micro-organismes, les plantes, les animaux et les êtres humains - ainsi que des considérations connexes comme la bioéthique. Alors que la biologie demeure la pièce maîtresse des sciences de la vie, les progrès technologiques de la biologie moléculaire et de la biotechnologie ont conduit à une éclosion de spécialisations et de domaines interdisciplinaires.
 Certaines sciences de la vie se concentrent sur un type spécifique de la vie. Par exemple, la zoologie est l'étude des animaux, tandis que la botanique est l'étude des plantes. D’autres sciences de la vie se concentrent sur les aspects communs à tous ou de nombreuses formes de vie, tels que l'anatomie et de la génétique. Pourtant, d'autres domaines sont intéressés par les avancées technologiques impliquant des êtres vivants, tels que le génie biologique. Une autre branche importante des sciences de la vie, bien plus spécifique, consiste à comprendre l'esprit: les neurosciences.
@@ -514,7 +526,9 @@
           <t>Principales branches</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les principales branches des sciences de la vie sont :
 Agronomie – l'ensemble des sciences exactes, naturelles, économiques et sociales, et des techniques auxquelles il est fait appel dans la pratique et la compréhension de l'agriculture ;
@@ -579,7 +593,9 @@
           <t>Subdivisions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Des subdivision par type d'organismes étudiés sont souvent utilisées :
 Bactériologie – l'étude des bactéries ;
